--- a/PCB版本历史/bonbon_v2.2/bonbon_project.xlsx
+++ b/PCB版本历史/bonbon_v2.2/bonbon_project.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huazheng\Desktop\毕设\PCB版本历史\bonbon_v2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huazheng\Desktop\bonbon\PCB版本历史\bonbon_v2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C03B5076-2C1A-41C7-87FD-1ADB6F93DE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{7DC57F35-B01B-459E-94F2-30CEB97BFED4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="15810"/>
   </bookViews>
   <sheets>
     <sheet name="bonbon_project" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">bonbon_project!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -369,7 +368,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,7 +479,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -492,7 +491,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -539,23 +538,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -591,23 +573,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -759,7 +724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093B0656-66C4-4D1F-BE4E-9F8E4BF5ED89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -767,12 +732,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="19" customWidth="1"/>
+    <col min="1" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -792,7 +757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -812,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -832,7 +797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -852,7 +817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -872,7 +837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -892,7 +857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -912,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -932,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -952,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -972,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -992,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1012,7 +977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -1032,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>46</v>
       </c>
@@ -1052,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>51</v>
       </c>
@@ -1072,7 +1037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
@@ -1092,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
@@ -1112,7 +1077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -1132,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>62</v>
       </c>
@@ -1152,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>64</v>
       </c>
@@ -1172,7 +1137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>66</v>
       </c>
@@ -1192,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>68</v>
       </c>
@@ -1212,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
@@ -1232,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>72</v>
       </c>
@@ -1252,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>66</v>
       </c>
@@ -1272,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>78</v>
       </c>
@@ -1292,7 +1257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>83</v>
       </c>
@@ -1312,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>88</v>
       </c>
@@ -1332,7 +1297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>91</v>
       </c>
@@ -1352,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>94</v>
       </c>
@@ -1372,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>97</v>
       </c>
@@ -1392,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>100</v>
       </c>
@@ -1412,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>103</v>
       </c>
@@ -1432,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>106</v>
       </c>
@@ -1452,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>109</v>
       </c>
@@ -1476,6 +1441,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>